--- a/resultados.xlsx
+++ b/resultados.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>N</t>
-  </si>
-  <si>
-    <t>Real</t>
-  </si>
-  <si>
-    <t>Diferentes</t>
   </si>
   <si>
     <t>N2</t>
@@ -39,7 +33,31 @@
     <t>N4</t>
   </si>
   <si>
-    <t>Conjuntos</t>
+    <t>LongSec0</t>
+  </si>
+  <si>
+    <t>LongSec1</t>
+  </si>
+  <si>
+    <t>ConjDif0</t>
+  </si>
+  <si>
+    <t>ConjDif1</t>
+  </si>
+  <si>
+    <t>ConjPos0</t>
+  </si>
+  <si>
+    <t>ConjPos1</t>
+  </si>
+  <si>
+    <t>ConjDif2</t>
+  </si>
+  <si>
+    <t>LogSec2</t>
+  </si>
+  <si>
+    <t>ConjPos2</t>
   </si>
 </sst>
 </file>
@@ -662,81 +680,60 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>resultado0!$A$2:$A$25</c:f>
+              <c:f>resultado0!$A$2:$A$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>13</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -744,7 +741,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-21B0-49FC-B87D-CE9C64B436CF}"/>
+              <c16:uniqueId val="{00000000-94BF-4E4E-A779-68837B7FF84E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -757,7 +754,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Real</c:v>
+                  <c:v>LongSec0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -776,81 +773,60 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>resultado0!$B$2:$B$25</c:f>
+              <c:f>resultado0!$B$2:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>51</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>95</c:v>
+                  <c:v>148</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>89</c:v>
+                  <c:v>212</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>148</c:v>
+                  <c:v>287</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>136</c:v>
+                  <c:v>373</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>212</c:v>
+                  <c:v>470</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>192</c:v>
+                  <c:v>578</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>287</c:v>
+                  <c:v>697</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>257</c:v>
+                  <c:v>827</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>373</c:v>
+                  <c:v>968</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>331</c:v>
+                  <c:v>1120</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>470</c:v>
+                  <c:v>1283</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>414</c:v>
+                  <c:v>1457</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>578</c:v>
+                  <c:v>1642</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>506</c:v>
+                  <c:v>1838</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>697</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>607</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>827</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>717</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>968</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>836</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1120</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>964</c:v>
+                  <c:v>2045</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -858,7 +834,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-21B0-49FC-B87D-CE9C64B436CF}"/>
+              <c16:uniqueId val="{00000001-94BF-4E4E-A779-68837B7FF84E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -871,7 +847,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Diferentes</c:v>
+                  <c:v>LongSec1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -890,81 +866,63 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>resultado0!$C$2:$C$25</c:f>
+              <c:f>resultado0!$C$2:$C$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>22</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34</c:v>
+                  <c:v>136</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30</c:v>
+                  <c:v>192</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>48</c:v>
+                  <c:v>257</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>38</c:v>
+                  <c:v>331</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64</c:v>
+                  <c:v>414</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>46</c:v>
+                  <c:v>506</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>82</c:v>
+                  <c:v>607</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>54</c:v>
+                  <c:v>717</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>102</c:v>
+                  <c:v>836</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>62</c:v>
+                  <c:v>964</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>124</c:v>
+                  <c:v>1101</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>70</c:v>
+                  <c:v>1247</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>148</c:v>
+                  <c:v>1402</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>78</c:v>
+                  <c:v>1566</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>174</c:v>
+                  <c:v>1739</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>202</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>232</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>264</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>110</c:v>
+                  <c:v>1921</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -972,7 +930,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-21B0-49FC-B87D-CE9C64B436CF}"/>
+              <c16:uniqueId val="{00000002-94BF-4E4E-A779-68837B7FF84E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -985,7 +943,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>N2</c:v>
+                  <c:v>LogSec2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1004,81 +962,63 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>resultado0!$D$2:$D$25</c:f>
+              <c:f>resultado0!$D$2:$D$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>25</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>25</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>36</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>36</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>49</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>49</c:v>
+                  <c:v>124</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>64</c:v>
+                  <c:v>134</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>64</c:v>
+                  <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>81</c:v>
+                  <c:v>154</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>81</c:v>
+                  <c:v>164</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>100</c:v>
+                  <c:v>174</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>121</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>121</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>169</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>169</c:v>
+                  <c:v>184</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1086,7 +1026,389 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-21B0-49FC-B87D-CE9C64B436CF}"/>
+              <c16:uniqueId val="{00000003-94BF-4E4E-A779-68837B7FF84E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>resultado0!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ConjDif0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>resultado0!$E$2:$E$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>334</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>372</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>412</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>454</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-94BF-4E4E-A779-68837B7FF84E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>resultado0!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ConjDif1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>resultado0!$F$2:$F$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>158</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-94BF-4E4E-A779-68837B7FF84E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>resultado0!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ConjDif2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>resultado0!$G$2:$G$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>94</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-94BF-4E4E-A779-68837B7FF84E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>resultado0!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>N2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>resultado0!$H$2:$H$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>289</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>324</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-94BF-4E4E-A779-68837B7FF84E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1099,11 +1421,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="367820840"/>
-        <c:axId val="367821168"/>
+        <c:axId val="360975800"/>
+        <c:axId val="360979736"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="367820840"/>
+        <c:axId val="360975800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1145,7 +1467,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="367821168"/>
+        <c:crossAx val="360979736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1153,7 +1475,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="367821168"/>
+        <c:axId val="360979736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1204,7 +1526,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="367820840"/>
+        <c:crossAx val="360975800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1845,20 +2167,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>390524</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>552449</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvPr id="3" name="Gráfico 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2139,41 +2461,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G25"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="M1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>2</v>
-      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -2181,548 +2527,713 @@
         <v>53</v>
       </c>
       <c r="C2">
+        <v>51</v>
+      </c>
+      <c r="D2">
+        <v>14</v>
+      </c>
+      <c r="E2">
         <v>22</v>
       </c>
-      <c r="D2">
+      <c r="F2">
+        <v>22</v>
+      </c>
+      <c r="G2">
+        <v>9</v>
+      </c>
+      <c r="H2">
         <v>4</v>
       </c>
-      <c r="E2">
+      <c r="I2">
+        <v>1431</v>
+      </c>
+      <c r="J2">
+        <v>1326</v>
+      </c>
+      <c r="K2">
+        <v>105</v>
+      </c>
+      <c r="L2">
         <v>8</v>
       </c>
-      <c r="F2">
+      <c r="M2">
         <v>16</v>
       </c>
-      <c r="G2">
-        <v>1431</v>
-      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="C3">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="D3">
+        <v>24</v>
+      </c>
+      <c r="E3">
+        <v>34</v>
+      </c>
+      <c r="F3">
+        <v>30</v>
+      </c>
+      <c r="G3">
+        <v>14</v>
+      </c>
+      <c r="H3">
+        <v>9</v>
+      </c>
+      <c r="I3">
+        <v>4560</v>
+      </c>
+      <c r="J3">
+        <v>4005</v>
+      </c>
+      <c r="K3">
+        <v>300</v>
+      </c>
+      <c r="L3">
+        <v>27</v>
+      </c>
+      <c r="M3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>4</v>
       </c>
-      <c r="E3">
+      <c r="B4">
+        <v>148</v>
+      </c>
+      <c r="C4">
+        <v>136</v>
+      </c>
+      <c r="D4">
+        <v>34</v>
+      </c>
+      <c r="E4">
+        <v>48</v>
+      </c>
+      <c r="F4">
+        <v>38</v>
+      </c>
+      <c r="G4">
+        <v>19</v>
+      </c>
+      <c r="H4">
+        <v>16</v>
+      </c>
+      <c r="I4">
+        <v>11026</v>
+      </c>
+      <c r="J4">
+        <v>9316</v>
+      </c>
+      <c r="K4">
+        <v>595</v>
+      </c>
+      <c r="L4">
+        <v>64</v>
+      </c>
+      <c r="M4">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>212</v>
+      </c>
+      <c r="C5">
+        <v>192</v>
+      </c>
+      <c r="D5">
+        <v>44</v>
+      </c>
+      <c r="E5">
+        <v>64</v>
+      </c>
+      <c r="F5">
+        <v>46</v>
+      </c>
+      <c r="G5">
+        <v>24</v>
+      </c>
+      <c r="H5">
+        <v>25</v>
+      </c>
+      <c r="I5">
+        <v>22578</v>
+      </c>
+      <c r="J5">
+        <v>18528</v>
+      </c>
+      <c r="K5">
+        <v>990</v>
+      </c>
+      <c r="L5">
+        <v>125</v>
+      </c>
+      <c r="M5">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>287</v>
+      </c>
+      <c r="C6">
+        <v>257</v>
+      </c>
+      <c r="D6">
+        <v>54</v>
+      </c>
+      <c r="E6">
+        <v>82</v>
+      </c>
+      <c r="F6">
+        <v>54</v>
+      </c>
+      <c r="G6">
+        <v>29</v>
+      </c>
+      <c r="H6">
+        <v>36</v>
+      </c>
+      <c r="I6">
+        <v>41328</v>
+      </c>
+      <c r="J6">
+        <v>33153</v>
+      </c>
+      <c r="K6">
+        <v>1485</v>
+      </c>
+      <c r="L6">
+        <v>216</v>
+      </c>
+      <c r="M6">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>373</v>
+      </c>
+      <c r="C7">
+        <v>331</v>
+      </c>
+      <c r="D7">
+        <v>64</v>
+      </c>
+      <c r="E7">
+        <v>102</v>
+      </c>
+      <c r="F7">
+        <v>62</v>
+      </c>
+      <c r="G7">
+        <v>34</v>
+      </c>
+      <c r="H7">
+        <v>49</v>
+      </c>
+      <c r="I7">
+        <v>69751</v>
+      </c>
+      <c r="J7">
+        <v>54946</v>
+      </c>
+      <c r="K7">
+        <v>2080</v>
+      </c>
+      <c r="L7">
+        <v>343</v>
+      </c>
+      <c r="M7">
+        <v>2401</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>8</v>
       </c>
-      <c r="F3">
+      <c r="B8">
+        <v>470</v>
+      </c>
+      <c r="C8">
+        <v>414</v>
+      </c>
+      <c r="D8">
+        <v>74</v>
+      </c>
+      <c r="E8">
+        <v>124</v>
+      </c>
+      <c r="F8">
+        <v>70</v>
+      </c>
+      <c r="G8">
+        <v>39</v>
+      </c>
+      <c r="H8">
+        <v>64</v>
+      </c>
+      <c r="I8">
+        <v>110685</v>
+      </c>
+      <c r="J8">
+        <v>85905</v>
+      </c>
+      <c r="K8">
+        <v>2775</v>
+      </c>
+      <c r="L8">
+        <v>512</v>
+      </c>
+      <c r="M8">
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>578</v>
+      </c>
+      <c r="C9">
+        <v>506</v>
+      </c>
+      <c r="D9">
+        <v>84</v>
+      </c>
+      <c r="E9">
+        <v>148</v>
+      </c>
+      <c r="F9">
+        <v>78</v>
+      </c>
+      <c r="G9">
+        <v>44</v>
+      </c>
+      <c r="H9">
+        <v>81</v>
+      </c>
+      <c r="I9">
+        <v>167331</v>
+      </c>
+      <c r="J9">
+        <v>128271</v>
+      </c>
+      <c r="K9">
+        <v>3570</v>
+      </c>
+      <c r="L9">
+        <v>729</v>
+      </c>
+      <c r="M9">
+        <v>6561</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>697</v>
+      </c>
+      <c r="C10">
+        <v>607</v>
+      </c>
+      <c r="D10">
+        <v>94</v>
+      </c>
+      <c r="E10">
+        <v>174</v>
+      </c>
+      <c r="F10">
+        <v>86</v>
+      </c>
+      <c r="G10">
+        <v>49</v>
+      </c>
+      <c r="H10">
+        <v>100</v>
+      </c>
+      <c r="I10">
+        <v>243253</v>
+      </c>
+      <c r="J10">
+        <v>184528</v>
+      </c>
+      <c r="K10">
+        <v>4465</v>
+      </c>
+      <c r="L10">
+        <v>1000</v>
+      </c>
+      <c r="M10">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>827</v>
+      </c>
+      <c r="C11">
+        <v>717</v>
+      </c>
+      <c r="D11">
+        <v>104</v>
+      </c>
+      <c r="E11">
+        <v>202</v>
+      </c>
+      <c r="F11">
+        <v>94</v>
+      </c>
+      <c r="G11">
+        <v>54</v>
+      </c>
+      <c r="H11">
+        <v>121</v>
+      </c>
+      <c r="I11">
+        <v>342378</v>
+      </c>
+      <c r="J11">
+        <v>257403</v>
+      </c>
+      <c r="K11">
+        <v>5460</v>
+      </c>
+      <c r="L11">
+        <v>1331</v>
+      </c>
+      <c r="M11">
+        <v>14641</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>968</v>
+      </c>
+      <c r="C12">
+        <v>836</v>
+      </c>
+      <c r="D12">
+        <v>114</v>
+      </c>
+      <c r="E12">
+        <v>232</v>
+      </c>
+      <c r="F12">
+        <v>102</v>
+      </c>
+      <c r="G12">
+        <v>59</v>
+      </c>
+      <c r="H12">
+        <v>144</v>
+      </c>
+      <c r="I12">
+        <v>468996</v>
+      </c>
+      <c r="J12">
+        <v>349866</v>
+      </c>
+      <c r="K12">
+        <v>6555</v>
+      </c>
+      <c r="L12">
+        <v>1728</v>
+      </c>
+      <c r="M12">
+        <v>20736</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>1120</v>
+      </c>
+      <c r="C13">
+        <v>964</v>
+      </c>
+      <c r="D13">
+        <v>124</v>
+      </c>
+      <c r="E13">
+        <v>264</v>
+      </c>
+      <c r="F13">
+        <v>110</v>
+      </c>
+      <c r="G13">
+        <v>64</v>
+      </c>
+      <c r="H13">
+        <v>169</v>
+      </c>
+      <c r="I13">
+        <v>627760</v>
+      </c>
+      <c r="J13">
+        <v>465130</v>
+      </c>
+      <c r="K13">
+        <v>7750</v>
+      </c>
+      <c r="L13">
+        <v>2197</v>
+      </c>
+      <c r="M13">
+        <v>28561</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>1283</v>
+      </c>
+      <c r="C14">
+        <v>1101</v>
+      </c>
+      <c r="D14">
+        <v>134</v>
+      </c>
+      <c r="E14">
+        <v>298</v>
+      </c>
+      <c r="F14">
+        <v>118</v>
+      </c>
+      <c r="G14">
+        <v>69</v>
+      </c>
+      <c r="H14">
+        <v>196</v>
+      </c>
+      <c r="I14">
+        <v>823686</v>
+      </c>
+      <c r="J14">
+        <v>606651</v>
+      </c>
+      <c r="K14">
+        <v>9045</v>
+      </c>
+      <c r="L14">
+        <v>2744</v>
+      </c>
+      <c r="M14">
+        <v>38416</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>1457</v>
+      </c>
+      <c r="C15">
+        <v>1247</v>
+      </c>
+      <c r="D15">
+        <v>144</v>
+      </c>
+      <c r="E15">
+        <v>334</v>
+      </c>
+      <c r="F15">
+        <v>126</v>
+      </c>
+      <c r="G15">
+        <v>74</v>
+      </c>
+      <c r="H15">
+        <v>225</v>
+      </c>
+      <c r="I15">
+        <v>1062153</v>
+      </c>
+      <c r="J15">
+        <v>778128</v>
+      </c>
+      <c r="K15">
+        <v>10440</v>
+      </c>
+      <c r="L15">
+        <v>3375</v>
+      </c>
+      <c r="M15">
+        <v>50625</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>16</v>
       </c>
-      <c r="G3">
-        <v>1326</v>
+      <c r="B16">
+        <v>1642</v>
+      </c>
+      <c r="C16">
+        <v>1402</v>
+      </c>
+      <c r="D16">
+        <v>154</v>
+      </c>
+      <c r="E16">
+        <v>372</v>
+      </c>
+      <c r="F16">
+        <v>134</v>
+      </c>
+      <c r="G16">
+        <v>79</v>
+      </c>
+      <c r="H16">
+        <v>256</v>
+      </c>
+      <c r="I16">
+        <v>1348903</v>
+      </c>
+      <c r="J16">
+        <v>983503</v>
+      </c>
+      <c r="K16">
+        <v>11935</v>
+      </c>
+      <c r="L16">
+        <v>4096</v>
+      </c>
+      <c r="M16">
+        <v>65536</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>95</v>
-      </c>
-      <c r="C4">
-        <v>34</v>
-      </c>
-      <c r="D4">
-        <v>9</v>
-      </c>
-      <c r="E4">
-        <v>27</v>
-      </c>
-      <c r="F4">
-        <v>81</v>
-      </c>
-      <c r="G4">
-        <v>4560</v>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>1838</v>
+      </c>
+      <c r="C17">
+        <v>1566</v>
+      </c>
+      <c r="D17">
+        <v>164</v>
+      </c>
+      <c r="E17">
+        <v>412</v>
+      </c>
+      <c r="F17">
+        <v>142</v>
+      </c>
+      <c r="G17">
+        <v>84</v>
+      </c>
+      <c r="H17">
+        <v>289</v>
+      </c>
+      <c r="I17">
+        <v>1690041</v>
+      </c>
+      <c r="J17">
+        <v>1226961</v>
+      </c>
+      <c r="K17">
+        <v>13530</v>
+      </c>
+      <c r="L17">
+        <v>4913</v>
+      </c>
+      <c r="M17">
+        <v>83521</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>2045</v>
+      </c>
+      <c r="C18">
+        <v>1739</v>
+      </c>
+      <c r="D18">
+        <v>174</v>
+      </c>
+      <c r="E18">
+        <v>454</v>
+      </c>
+      <c r="F18">
+        <v>150</v>
+      </c>
+      <c r="G18">
         <v>89</v>
       </c>
-      <c r="C5">
-        <v>30</v>
-      </c>
-      <c r="D5">
-        <v>9</v>
-      </c>
-      <c r="E5">
-        <v>27</v>
-      </c>
-      <c r="F5">
-        <v>81</v>
-      </c>
-      <c r="G5">
-        <v>4005</v>
+      <c r="H18">
+        <v>324</v>
+      </c>
+      <c r="I18">
+        <v>2092035</v>
+      </c>
+      <c r="J18">
+        <v>1512930</v>
+      </c>
+      <c r="K18">
+        <v>15225</v>
+      </c>
+      <c r="L18">
+        <v>5832</v>
+      </c>
+      <c r="M18">
+        <v>104976</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>148</v>
-      </c>
-      <c r="C6">
-        <v>48</v>
-      </c>
-      <c r="D6">
-        <v>16</v>
-      </c>
-      <c r="E6">
-        <v>64</v>
-      </c>
-      <c r="F6">
-        <v>256</v>
-      </c>
-      <c r="G6">
-        <v>11026</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>4</v>
-      </c>
-      <c r="B7">
-        <v>136</v>
-      </c>
-      <c r="C7">
-        <v>38</v>
-      </c>
-      <c r="D7">
-        <v>16</v>
-      </c>
-      <c r="E7">
-        <v>64</v>
-      </c>
-      <c r="F7">
-        <v>256</v>
-      </c>
-      <c r="G7">
-        <v>9316</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>5</v>
-      </c>
-      <c r="B8">
-        <v>212</v>
-      </c>
-      <c r="C8">
-        <v>64</v>
-      </c>
-      <c r="D8">
-        <v>25</v>
-      </c>
-      <c r="E8">
-        <v>125</v>
-      </c>
-      <c r="F8">
-        <v>625</v>
-      </c>
-      <c r="G8">
-        <v>22578</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>5</v>
-      </c>
-      <c r="B9">
-        <v>192</v>
-      </c>
-      <c r="C9">
-        <v>46</v>
-      </c>
-      <c r="D9">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>125</v>
-      </c>
-      <c r="F9">
-        <v>625</v>
-      </c>
-      <c r="G9">
-        <v>18528</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>6</v>
-      </c>
-      <c r="B10">
-        <v>287</v>
-      </c>
-      <c r="C10">
-        <v>82</v>
-      </c>
-      <c r="D10">
-        <v>36</v>
-      </c>
-      <c r="E10">
-        <v>216</v>
-      </c>
-      <c r="F10">
-        <v>1296</v>
-      </c>
-      <c r="G10">
-        <v>41328</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>6</v>
-      </c>
-      <c r="B11">
-        <v>257</v>
-      </c>
-      <c r="C11">
-        <v>54</v>
-      </c>
-      <c r="D11">
-        <v>36</v>
-      </c>
-      <c r="E11">
-        <v>216</v>
-      </c>
-      <c r="F11">
-        <v>1296</v>
-      </c>
-      <c r="G11">
-        <v>33153</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>7</v>
-      </c>
-      <c r="B12">
-        <v>373</v>
-      </c>
-      <c r="C12">
-        <v>102</v>
-      </c>
-      <c r="D12">
-        <v>49</v>
-      </c>
-      <c r="E12">
-        <v>343</v>
-      </c>
-      <c r="F12">
-        <v>2401</v>
-      </c>
-      <c r="G12">
-        <v>69751</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>7</v>
-      </c>
-      <c r="B13">
-        <v>331</v>
-      </c>
-      <c r="C13">
-        <v>62</v>
-      </c>
-      <c r="D13">
-        <v>49</v>
-      </c>
-      <c r="E13">
-        <v>343</v>
-      </c>
-      <c r="F13">
-        <v>2401</v>
-      </c>
-      <c r="G13">
-        <v>54946</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>8</v>
-      </c>
-      <c r="B14">
-        <v>470</v>
-      </c>
-      <c r="C14">
-        <v>124</v>
-      </c>
-      <c r="D14">
-        <v>64</v>
-      </c>
-      <c r="E14">
-        <v>512</v>
-      </c>
-      <c r="F14">
-        <v>4096</v>
-      </c>
-      <c r="G14">
-        <v>110685</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>8</v>
-      </c>
-      <c r="B15">
-        <v>414</v>
-      </c>
-      <c r="C15">
-        <v>70</v>
-      </c>
-      <c r="D15">
-        <v>64</v>
-      </c>
-      <c r="E15">
-        <v>512</v>
-      </c>
-      <c r="F15">
-        <v>4096</v>
-      </c>
-      <c r="G15">
-        <v>85905</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>9</v>
-      </c>
-      <c r="B16">
-        <v>578</v>
-      </c>
-      <c r="C16">
-        <v>148</v>
-      </c>
-      <c r="D16">
-        <v>81</v>
-      </c>
-      <c r="E16">
-        <v>729</v>
-      </c>
-      <c r="F16">
-        <v>6561</v>
-      </c>
-      <c r="G16">
-        <v>167331</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>9</v>
-      </c>
-      <c r="B17">
-        <v>506</v>
-      </c>
-      <c r="C17">
-        <v>78</v>
-      </c>
-      <c r="D17">
-        <v>81</v>
-      </c>
-      <c r="E17">
-        <v>729</v>
-      </c>
-      <c r="F17">
-        <v>6561</v>
-      </c>
-      <c r="G17">
-        <v>128271</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>10</v>
-      </c>
-      <c r="B18">
-        <v>697</v>
-      </c>
-      <c r="C18">
-        <v>174</v>
-      </c>
-      <c r="D18">
-        <v>100</v>
-      </c>
-      <c r="E18">
-        <v>1000</v>
-      </c>
-      <c r="F18">
-        <v>10000</v>
-      </c>
-      <c r="G18">
-        <v>243253</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>10</v>
-      </c>
-      <c r="B19">
-        <v>607</v>
-      </c>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C19">
-        <v>86</v>
+        <v>1921</v>
       </c>
       <c r="D19">
-        <v>100</v>
-      </c>
-      <c r="E19">
-        <v>1000</v>
+        <v>184</v>
       </c>
       <c r="F19">
-        <v>10000</v>
+        <v>158</v>
       </c>
       <c r="G19">
-        <v>184528</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>11</v>
-      </c>
-      <c r="B20">
-        <v>827</v>
-      </c>
-      <c r="C20">
-        <v>202</v>
-      </c>
-      <c r="D20">
-        <v>121</v>
-      </c>
-      <c r="E20">
-        <v>1331</v>
-      </c>
-      <c r="F20">
-        <v>14641</v>
-      </c>
-      <c r="G20">
-        <v>342378</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>11</v>
-      </c>
-      <c r="B21">
-        <v>717</v>
-      </c>
-      <c r="C21">
         <v>94</v>
       </c>
-      <c r="D21">
-        <v>121</v>
-      </c>
-      <c r="E21">
-        <v>1331</v>
-      </c>
-      <c r="F21">
-        <v>14641</v>
-      </c>
-      <c r="G21">
-        <v>257403</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>12</v>
-      </c>
-      <c r="B22">
-        <v>968</v>
-      </c>
-      <c r="C22">
-        <v>232</v>
-      </c>
-      <c r="D22">
-        <v>144</v>
-      </c>
-      <c r="E22">
-        <v>1728</v>
-      </c>
-      <c r="F22">
-        <v>20736</v>
-      </c>
-      <c r="G22">
-        <v>468996</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>12</v>
-      </c>
-      <c r="B23">
-        <v>836</v>
-      </c>
-      <c r="C23">
-        <v>102</v>
-      </c>
-      <c r="D23">
-        <v>144</v>
-      </c>
-      <c r="E23">
-        <v>1728</v>
-      </c>
-      <c r="F23">
-        <v>20736</v>
-      </c>
-      <c r="G23">
-        <v>349866</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>13</v>
-      </c>
-      <c r="B24">
-        <v>1120</v>
-      </c>
-      <c r="C24">
-        <v>264</v>
-      </c>
-      <c r="D24">
-        <v>169</v>
-      </c>
-      <c r="E24">
-        <v>2197</v>
-      </c>
-      <c r="F24">
-        <v>28561</v>
-      </c>
-      <c r="G24">
-        <v>627760</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>13</v>
-      </c>
-      <c r="B25">
-        <v>964</v>
-      </c>
-      <c r="C25">
-        <v>110</v>
-      </c>
-      <c r="D25">
-        <v>169</v>
-      </c>
-      <c r="E25">
-        <v>2197</v>
-      </c>
-      <c r="F25">
-        <v>28561</v>
-      </c>
-      <c r="G25">
-        <v>465130</v>
+      <c r="J19">
+        <v>1846081</v>
+      </c>
+      <c r="K19">
+        <v>17020</v>
       </c>
     </row>
   </sheetData>
